--- a/excel/1mo/ph_pl_data_1mo.xlsx
+++ b/excel/1mo/ph_pl_data_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2235"/>
+  <dimension ref="A1:G2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56324,6 +56324,156 @@
         <v>590.25</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2236" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>52516.76171875</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>46433.6484375</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>49099.98828125</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>52516.76171875</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2237" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>62245.4296875</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>58551.140625</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>59306.9296875</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>62245.4296875</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2238" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>63583.0703125</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>59754.1015625</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>60840.73828125</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>63583.0703125</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2239" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>56432.6484375</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>50921.21875</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>53018.94140625</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>50921.21875</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2240" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>60498.48046875</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>57084.91015625</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>58991.51953125</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>57084.91015625</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2241" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>66592.15625</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>63092.98046875</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>63874.9296875</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>63092.98046875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/ph_pl_data_1mo.xlsx
+++ b/excel/1mo/ph_pl_data_1mo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2241"/>
+  <dimension ref="A1:G2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56474,6 +56474,156 @@
         <v>63092.98046875</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2242" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>5073.9501953125</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>4617.35009765625</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>4915.7001953125</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>5073.9501953125</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2243" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>9196.75</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>8198.9501953125</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>8513.5</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>9196.75</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2244" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>9086.75</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>8382.150390625</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>8751.75</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>9086.75</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2245" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>4636.7998046875</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>2855.35009765625</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>3180.60009765625</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>2855.35009765625</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2246" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>7909.7998046875</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>6963.14990234375</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>7297.64990234375</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>6963.14990234375</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2247" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>8785.650390625</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>8194.599609375</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>8466.7998046875</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>8194.599609375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
